--- a/SMLMS.Web/ClientApp/src/assets/file/Task-Role-Permission.xlsx
+++ b/SMLMS.Web/ClientApp/src/assets/file/Task-Role-Permission.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\slack daily report\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Gorab_data\Project\LAMS\SMLMS.Web\ClientApp\src\assets\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BEC63D8-8CB0-4F44-96C7-8FC69370C8B8}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E07FB60D-9B7C-4A98-B9C7-9E2D836CF5CA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20700" windowHeight="11160" xr2:uid="{DF70CDEA-9C03-4D8D-A9FC-55172EA5D45A}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="19">
   <si>
     <t>Task</t>
   </si>
@@ -61,15 +61,6 @@
     <t>PuncIn/PunchOut</t>
   </si>
   <si>
-    <t>Add,edit remove Task</t>
-  </si>
-  <si>
-    <t>Remove assigned task</t>
-  </si>
-  <si>
-    <t>Present</t>
-  </si>
-  <si>
     <t>HR Manager</t>
   </si>
   <si>
@@ -80,13 +71,31 @@
   </si>
   <si>
     <t>Developer</t>
+  </si>
+  <si>
+    <t>Employees Leaves Status</t>
+  </si>
+  <si>
+    <t>Employee</t>
+  </si>
+  <si>
+    <t>Today Attendance</t>
+  </si>
+  <si>
+    <t>Task Role Permission</t>
+  </si>
+  <si>
+    <t>Role</t>
+  </si>
+  <si>
+    <t>Department</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -105,6 +114,11 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -144,10 +158,10 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -463,10 +477,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46CC53BD-5E3D-4C2F-BEFF-F5BD1F292725}">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -478,23 +492,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>12</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -514,7 +528,7 @@
         <v>4</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -582,7 +596,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>4</v>
@@ -598,8 +612,8 @@
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="5" t="s">
-        <v>9</v>
+      <c r="A7" s="6" t="s">
+        <v>0</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>4</v>
@@ -618,28 +632,28 @@
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F8" s="3" t="s">
+      <c r="A8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="4" t="s">
-        <v>11</v>
+      <c r="A9" t="s">
+        <v>15</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>4</v>
@@ -654,11 +668,92 @@
         <v>4</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
@@ -666,7 +761,7 @@
           <x14:formula1>
             <xm:f>Sheet2!$A$1:$A$2</xm:f>
           </x14:formula1>
-          <xm:sqref>B28:F1048576 B2:F27</xm:sqref>
+          <xm:sqref>B2:F1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
